--- a/data/Subset1_WithDialogActs/Gang of Four_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Gang of Four_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1585,12 +1585,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2463,12 +2463,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3679,12 +3679,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4257,12 +4257,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4561,12 +4561,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4789,12 +4789,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5093,12 +5093,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5169,12 +5169,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5443,12 +5443,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5595,12 +5595,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6507,12 +6507,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6583,12 +6583,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7385,12 +7385,12 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7613,12 +7613,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7937,12 +7937,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8587,12 +8587,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8625,12 +8625,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8663,12 +8663,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8815,12 +8815,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8849,12 +8849,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9001,12 +9001,12 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9191,12 +9191,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10521,12 +10521,12 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10559,12 +10559,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11015,12 +11015,12 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11095,12 +11095,12 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11369,12 +11369,12 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11753,12 +11753,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12361,12 +12361,12 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13273,12 +13273,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13387,12 +13387,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13501,12 +13501,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13729,12 +13729,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14109,12 +14109,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14831,12 +14831,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15173,12 +15173,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15565,12 +15565,12 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16173,12 +16173,12 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16325,12 +16325,12 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16705,12 +16705,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16895,12 +16895,12 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18039,12 +18039,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18191,12 +18191,12 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18419,12 +18419,12 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18457,12 +18457,12 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18495,12 +18495,12 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18571,12 +18571,12 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18837,12 +18837,12 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19103,12 +19103,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19217,12 +19217,12 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19749,12 +19749,12 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20091,12 +20091,12 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20247,12 +20247,12 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20863,12 +20863,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21745,12 +21745,12 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22277,12 +22277,12 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22315,12 +22315,12 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22809,12 +22809,12 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22923,12 +22923,12 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23759,12 +23759,12 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23835,12 +23835,12 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23949,12 +23949,12 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24101,12 +24101,12 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24291,12 +24291,12 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24329,12 +24329,12 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24709,12 +24709,12 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25205,12 +25205,12 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25545,12 +25545,12 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25697,12 +25697,12 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26077,12 +26077,12 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26343,12 +26343,12 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26495,12 +26495,12 @@
       <c r="H683" t="inlineStr"/>
       <c r="I683" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26609,12 +26609,12 @@
       <c r="H686" t="inlineStr"/>
       <c r="I686" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27179,12 +27179,12 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27407,12 +27407,12 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27483,12 +27483,12 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27637,12 +27637,12 @@
       <c r="H713" t="inlineStr"/>
       <c r="I713" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27717,12 +27717,12 @@
       <c r="H715" t="inlineStr"/>
       <c r="I715" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28595,12 +28595,12 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28899,12 +28899,12 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28937,12 +28937,12 @@
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29165,12 +29165,12 @@
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29507,12 +29507,12 @@
       <c r="H762" t="inlineStr"/>
       <c r="I762" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30267,12 +30267,12 @@
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30837,12 +30837,12 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30877,12 +30877,12 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31447,12 +31447,12 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31713,12 +31713,12 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J820" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32353,12 +32353,12 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J837" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33155,12 +33155,12 @@
       <c r="H858" t="inlineStr"/>
       <c r="I858" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33307,12 +33307,12 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J862" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -33459,12 +33459,12 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35743,12 +35743,12 @@
       <c r="H926" t="inlineStr"/>
       <c r="I926" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -36123,12 +36123,12 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -36503,12 +36503,12 @@
       <c r="H946" t="inlineStr"/>
       <c r="I946" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J946" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -36773,12 +36773,12 @@
       <c r="H953" t="inlineStr"/>
       <c r="I953" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J953" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -36849,12 +36849,12 @@
       <c r="H955" t="inlineStr"/>
       <c r="I955" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J955" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37343,12 +37343,12 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J968" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -37913,12 +37913,12 @@
       <c r="H983" t="inlineStr"/>
       <c r="I983" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J983" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -38141,12 +38141,12 @@
       <c r="H989" t="inlineStr"/>
       <c r="I989" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J989" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -38217,12 +38217,12 @@
       <c r="H991" t="inlineStr"/>
       <c r="I991" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J991" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -38331,12 +38331,12 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J994" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
